--- a/Microscopy/data/density.xlsx
+++ b/Microscopy/data/density.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eyob/Documents/Master/Work and Internships/Research IIT/Summer 2021 - REU/Week 7/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2308856-29B0-C648-9991-B015FD24B246}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEE5BCB6-A984-9548-AA54-31544513CF76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,9 +39,6 @@
     <t>Porosity</t>
   </si>
   <si>
-    <t>Sample num</t>
-  </si>
-  <si>
     <t>Power</t>
   </si>
   <si>
@@ -50,16 +47,35 @@
   <si>
     <t>Area</t>
   </si>
+  <si>
+    <t>SampleNum</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -82,8 +98,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -299,17 +318,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E989"/>
+  <dimension ref="A1:E979"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J31" sqref="J31"/>
+      <selection activeCell="K30" sqref="K30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.5" customWidth="1"/>
     <col min="5" max="5" width="9" customWidth="1"/>
     <col min="6" max="26" width="7.6640625" customWidth="1"/>
@@ -317,420 +336,471 @@
   <sheetData>
     <row r="1" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>4</v>
       </c>
       <c r="E1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2">
+    <row r="2" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="2">
         <v>400</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="2">
         <v>150</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="2">
         <v>96.010199999999998</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="1">
         <f>100-D2</f>
         <v>3.9898000000000025</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3">
+    <row r="3" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="2">
         <v>400</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="2">
         <v>225</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="2">
         <v>99.538300000000007</v>
       </c>
-      <c r="E3">
-        <f t="shared" ref="E3:E23" si="0">100-D3</f>
+      <c r="E3" s="1">
+        <f t="shared" ref="E3:E26" si="0">100-D3</f>
         <v>0.46169999999999334</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4">
+    <row r="4" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="2">
         <v>400</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="2">
         <v>280</v>
       </c>
-      <c r="D4">
-        <v>99.643299999999996</v>
-      </c>
-      <c r="E4">
-        <f t="shared" si="0"/>
-        <v>0.35670000000000357</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5">
+      <c r="D4" s="2">
+        <v>99.769599999999997</v>
+      </c>
+      <c r="E4" s="1">
+        <f t="shared" si="0"/>
+        <v>0.23040000000000305</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="3">
+        <v>5</v>
+      </c>
+      <c r="B5" s="2">
+        <v>400</v>
+      </c>
+      <c r="C5" s="2">
+        <v>370</v>
+      </c>
+      <c r="D5" s="2">
+        <v>99.911000000000001</v>
+      </c>
+      <c r="E5" s="1">
+        <f t="shared" si="0"/>
+        <v>8.8999999999998636E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
         <v>6</v>
       </c>
-      <c r="B5">
+      <c r="B6" s="2">
         <v>600</v>
       </c>
-      <c r="C5">
+      <c r="C6" s="2">
         <v>150</v>
       </c>
-      <c r="D5">
-        <v>75.763900000000007</v>
-      </c>
-      <c r="E5">
-        <f t="shared" si="0"/>
-        <v>24.236099999999993</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6">
+      <c r="D6" s="2">
+        <v>77.600899999999996</v>
+      </c>
+      <c r="E6" s="1">
+        <f t="shared" si="0"/>
+        <v>22.399100000000004</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="3">
         <v>7</v>
       </c>
-      <c r="B6">
+      <c r="B7" s="2">
         <v>600</v>
       </c>
-      <c r="C6">
+      <c r="C7" s="2">
         <v>225</v>
       </c>
-      <c r="D6">
+      <c r="D7" s="2">
         <v>97.417599999999993</v>
       </c>
-      <c r="E6">
+      <c r="E7" s="1">
         <f t="shared" si="0"/>
         <v>2.5824000000000069</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7">
+    <row r="8" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="3">
         <v>8</v>
       </c>
-      <c r="B7">
+      <c r="B8" s="2">
         <v>600</v>
       </c>
-      <c r="C7">
+      <c r="C8" s="2">
         <v>280</v>
       </c>
-      <c r="D7">
+      <c r="D8" s="2">
         <v>92.767499999999998</v>
       </c>
-      <c r="E7">
+      <c r="E8" s="1">
         <f t="shared" si="0"/>
         <v>7.2325000000000017</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8">
+    <row r="9" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="3">
         <v>9</v>
       </c>
-      <c r="B8">
+      <c r="B9" s="2">
         <v>600</v>
       </c>
-      <c r="C8">
+      <c r="C9" s="2">
         <v>340</v>
       </c>
-      <c r="D8">
-        <v>78.743300000000005</v>
-      </c>
-      <c r="E8">
-        <f t="shared" si="0"/>
-        <v>21.256699999999995</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9">
+      <c r="D9" s="2">
+        <v>80.286000000000001</v>
+      </c>
+      <c r="E9" s="1">
+        <f t="shared" si="0"/>
+        <v>19.713999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
         <v>10</v>
       </c>
-      <c r="B9">
+      <c r="B10" s="2">
         <v>600</v>
       </c>
-      <c r="C9">
+      <c r="C10" s="2">
         <v>370</v>
       </c>
-      <c r="D9">
+      <c r="D10" s="2">
         <v>97.931799999999996</v>
       </c>
-      <c r="E9">
+      <c r="E10" s="1">
         <f t="shared" si="0"/>
         <v>2.0682000000000045</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10">
+    <row r="11" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
         <v>11</v>
       </c>
-      <c r="B10">
+      <c r="B11" s="2">
         <v>800</v>
       </c>
-      <c r="C10">
+      <c r="C11" s="2">
         <v>150</v>
       </c>
-      <c r="D10">
-        <v>83.679299999999998</v>
-      </c>
-      <c r="E10">
-        <f t="shared" si="0"/>
-        <v>16.320700000000002</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11">
+      <c r="D11" s="2">
+        <v>90.548649999999995</v>
+      </c>
+      <c r="E11" s="1">
+        <f t="shared" si="0"/>
+        <v>9.451350000000005</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
         <v>14</v>
       </c>
-      <c r="B11">
+      <c r="B12" s="2">
         <v>800</v>
       </c>
-      <c r="C11">
+      <c r="C12" s="2">
         <v>340</v>
       </c>
-      <c r="D11">
-        <v>75.103899999999996</v>
-      </c>
-      <c r="E11">
-        <f t="shared" si="0"/>
-        <v>24.896100000000004</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12">
+      <c r="D12" s="2">
+        <v>93.986400000000003</v>
+      </c>
+      <c r="E12" s="1">
+        <f t="shared" si="0"/>
+        <v>6.0135999999999967</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
         <v>15</v>
       </c>
-      <c r="B12">
+      <c r="B13" s="2">
         <v>800</v>
       </c>
-      <c r="C12">
+      <c r="C13" s="2">
         <v>370</v>
       </c>
-      <c r="D12">
+      <c r="D13" s="2">
         <v>95.618300000000005</v>
       </c>
-      <c r="E12">
+      <c r="E13" s="1">
         <f t="shared" si="0"/>
         <v>4.381699999999995</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13">
+    <row r="14" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
         <v>16</v>
       </c>
-      <c r="B13">
+      <c r="B14" s="2">
         <v>1000</v>
       </c>
-      <c r="C13">
+      <c r="C14" s="2">
         <v>225</v>
       </c>
-      <c r="D13">
-        <v>72.672600000000003</v>
-      </c>
-      <c r="E13">
-        <f t="shared" si="0"/>
-        <v>27.327399999999997</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14">
+      <c r="D14" s="2">
+        <v>77.013900000000007</v>
+      </c>
+      <c r="E14" s="1">
+        <f t="shared" si="0"/>
+        <v>22.986099999999993</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="3">
         <v>17</v>
       </c>
-      <c r="B14">
+      <c r="B15" s="2">
         <v>1000</v>
       </c>
-      <c r="C14">
+      <c r="C15" s="2">
         <v>280</v>
       </c>
-      <c r="D14">
-        <v>75.103899999999996</v>
-      </c>
-      <c r="E14">
-        <f t="shared" si="0"/>
-        <v>24.896100000000004</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15">
+      <c r="D15" s="2">
+        <v>82.294200000000004</v>
+      </c>
+      <c r="E15" s="1">
+        <f t="shared" si="0"/>
+        <v>17.705799999999996</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="3">
         <v>18</v>
       </c>
-      <c r="B15">
+      <c r="B16" s="2">
         <v>1000</v>
       </c>
-      <c r="C15">
+      <c r="C16" s="2">
         <v>340</v>
       </c>
-      <c r="D15">
+      <c r="D16" s="2">
         <v>97.93</v>
       </c>
-      <c r="E15">
+      <c r="E16" s="1">
         <f t="shared" si="0"/>
         <v>2.0699999999999932</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16">
+    <row r="17" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="3">
         <v>19</v>
       </c>
-      <c r="B16">
+      <c r="B17" s="2">
         <v>1000</v>
       </c>
-      <c r="C16">
+      <c r="C17" s="2">
         <v>370</v>
       </c>
-      <c r="D16">
+      <c r="D17" s="2">
         <v>90.291300000000007</v>
       </c>
-      <c r="E16">
+      <c r="E17" s="1">
         <f t="shared" si="0"/>
         <v>9.7086999999999932</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17">
+    <row r="18" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="3">
         <v>20</v>
       </c>
-      <c r="B17">
+      <c r="B18" s="2">
         <v>1250</v>
       </c>
-      <c r="C17">
+      <c r="C18" s="2">
         <v>225</v>
       </c>
-      <c r="D17">
+      <c r="D18" s="2">
         <v>84.75</v>
       </c>
-      <c r="E17">
+      <c r="E18" s="1">
         <f t="shared" si="0"/>
         <v>15.25</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18">
+    <row r="19" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="3">
         <v>21</v>
       </c>
-      <c r="B18">
+      <c r="B19" s="2">
         <v>1250</v>
       </c>
-      <c r="C18">
+      <c r="C19" s="2">
         <v>280</v>
       </c>
-      <c r="D18">
-        <v>80.292699999999996</v>
-      </c>
-      <c r="E18">
-        <f t="shared" si="0"/>
-        <v>19.707300000000004</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19">
+      <c r="D19" s="2">
+        <v>89.603300000000004</v>
+      </c>
+      <c r="E19" s="1">
+        <f t="shared" si="0"/>
+        <v>10.396699999999996</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="3">
         <v>22</v>
       </c>
-      <c r="B19">
+      <c r="B20" s="2">
         <v>1250</v>
       </c>
-      <c r="C19">
+      <c r="C20" s="2">
         <v>340</v>
       </c>
-      <c r="D19">
+      <c r="D20" s="2">
         <v>84.183400000000006</v>
       </c>
-      <c r="E19">
+      <c r="E20" s="1">
         <f t="shared" si="0"/>
         <v>15.816599999999994</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20">
+    <row r="21" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="3">
         <v>23</v>
       </c>
-      <c r="B20">
+      <c r="B21" s="2">
         <v>1250</v>
       </c>
-      <c r="C20">
+      <c r="C21" s="2">
         <v>370</v>
       </c>
-      <c r="D20">
+      <c r="D21" s="2">
         <v>84.75</v>
       </c>
-      <c r="E20">
+      <c r="E21" s="1">
         <f t="shared" si="0"/>
         <v>15.25</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21">
+    <row r="22" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="3">
         <v>24</v>
       </c>
-      <c r="B21">
+      <c r="B22" s="2">
         <v>1500</v>
       </c>
-      <c r="C21">
+      <c r="C22" s="2">
         <v>225</v>
       </c>
-      <c r="D21">
-        <v>65.003100000000003</v>
-      </c>
-      <c r="E21">
-        <f t="shared" si="0"/>
-        <v>34.996899999999997</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22">
+      <c r="D22" s="2">
+        <v>72.377399999999994</v>
+      </c>
+      <c r="E22" s="1">
+        <f t="shared" si="0"/>
+        <v>27.622600000000006</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="3">
         <v>26</v>
       </c>
-      <c r="B22">
+      <c r="B23" s="2">
         <v>1500</v>
       </c>
-      <c r="C22">
+      <c r="C23" s="2">
         <v>340</v>
       </c>
-      <c r="D22">
-        <v>69.538300000000007</v>
-      </c>
-      <c r="E22">
-        <f t="shared" si="0"/>
-        <v>30.461699999999993</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23">
+      <c r="D23" s="2">
+        <v>84.677999999999997</v>
+      </c>
+      <c r="E23" s="1">
+        <f t="shared" si="0"/>
+        <v>15.322000000000003</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="3">
         <v>27</v>
       </c>
-      <c r="B23">
+      <c r="B24" s="2">
         <v>1500</v>
       </c>
-      <c r="C23">
+      <c r="C24" s="2">
         <v>370</v>
       </c>
-      <c r="D23">
-        <v>98.975999999999999</v>
-      </c>
-      <c r="E23">
-        <f t="shared" si="0"/>
-        <v>1.0240000000000009</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="25" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="26" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+      <c r="D24" s="2">
+        <v>87.47</v>
+      </c>
+      <c r="E24" s="1">
+        <f>100-D24</f>
+        <v>12.530000000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="3">
+        <v>29</v>
+      </c>
+      <c r="B25" s="2">
+        <v>1250</v>
+      </c>
+      <c r="C25" s="2">
+        <v>385</v>
+      </c>
+      <c r="D25" s="2">
+        <v>89.493600000000001</v>
+      </c>
+      <c r="E25" s="1">
+        <f t="shared" si="0"/>
+        <v>10.506399999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="3">
+        <v>30</v>
+      </c>
+      <c r="B26" s="2">
+        <v>800</v>
+      </c>
+      <c r="C26" s="2">
+        <v>385</v>
+      </c>
+      <c r="D26" s="2">
+        <v>98.910899999999998</v>
+      </c>
+      <c r="E26" s="1">
+        <f t="shared" si="0"/>
+        <v>1.089100000000002</v>
+      </c>
+    </row>
     <row r="27" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="28" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="29" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1684,16 +1754,6 @@
     <row r="977" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="978" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="979" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="980" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="981" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="982" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="983" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="984" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="985" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="986" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="987" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="988" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="989" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
